--- a/Conver XLSX to CSV/Version 2/sample_input_for_convert.xlsx
+++ b/Conver XLSX to CSV/Version 2/sample_input_for_convert.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\netbox-import-tool\Conver XLSX to CSV\Version 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AD7F84A-BB99-4968-8CE3-B4A4D08C430C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0276AE57-9B68-465B-BBA1-DF859DCC7471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51D8CE69-D48F-4D47-B5F1-87CE3E7BE717}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Rack</t>
   </si>
@@ -114,13 +114,25 @@
   </si>
   <si>
     <t>TEST 02</t>
+  </si>
+  <si>
+    <t>001/DEMO/T-EST03</t>
+  </si>
+  <si>
+    <t>25TE13ST</t>
+  </si>
+  <si>
+    <t>25/11/2025</t>
+  </si>
+  <si>
+    <t>TEST 03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +173,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -253,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,9 +316,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,7 +662,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,14 +754,31 @@
       <c r="B3" s="14">
         <v>41</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="H3" s="14"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -771,10 +803,10 @@
         <v>21</v>
       </c>
       <c r="H4" s="14"/>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="K4" t="s">
@@ -782,6 +814,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>